--- a/DATA_goal/Junction_Flooding_327.xlsx
+++ b/DATA_goal/Junction_Flooding_327.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>45008.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45008.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.59</v>
+        <v>15.85</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.12</v>
+        <v>11.2</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.79</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>3.42</v>
+        <v>34.24</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>2.77</v>
+        <v>27.72</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.48</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.43</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.92</v>
+        <v>19.2</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.23</v>
+        <v>12.25</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>1.37</v>
+        <v>13.7</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.31</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.99</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.75</v>
+        <v>17.48</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.69</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>18.15</v>
+        <v>181.53</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.47</v>
+        <v>34.73</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.15</v>
+        <v>11.45</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.3</v>
+        <v>23.04</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.2</v>
+        <v>11.97</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.22</v>
+        <v>2.2</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.35</v>
+        <v>23.5</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.01</v>
+        <v>10.12</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.15</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.42</v>
+        <v>14.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.41</v>
+        <v>44.06</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.63</v>
+        <v>6.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.32</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45008.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.33</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.65</v>
+        <v>36.46</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.97</v>
+        <v>29.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>5.15</v>
+        <v>51.47</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.93</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.19</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.46</v>
+        <v>14.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.35</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.42</v>
+        <v>4.23</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.86</v>
+        <v>18.64</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.12</v>
+        <v>11.22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>1.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.83</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>19.3</v>
+        <v>192.97</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.68</v>
+        <v>36.81</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.46</v>
+        <v>24.58</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.12</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.49</v>
+        <v>24.89</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.53</v>
+        <v>15.26</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.67</v>
+        <v>46.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.78</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.52</v>
+        <v>15.19</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>45008.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.29</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.93</v>
+        <v>9.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.85</v>
+        <v>18.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.11</v>
+        <v>1.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.26</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.72</v>
+        <v>17.15</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.17</v>
+        <v>1.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_327.xlsx
+++ b/DATA_goal/Junction_Flooding_327.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>45008.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>45008.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>15.85</v>
+        <v>15.854</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>11.2</v>
+        <v>11.197</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.791</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>34.24</v>
+        <v>34.241</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>27.72</v>
+        <v>27.717</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>12.48</v>
+        <v>12.477</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>48.43</v>
+        <v>48.427</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>19.2</v>
+        <v>19.197</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>8.289999999999999</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>12.25</v>
+        <v>12.251</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>13.7</v>
+        <v>13.699</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>14.31</v>
+        <v>14.309</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.99</v>
+        <v>3.986</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>12.41</v>
+        <v>12.407</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>17.48</v>
+        <v>17.484</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>10.69</v>
+        <v>10.688</v>
       </c>
       <c r="R3" s="4" t="n">
         <v>1.55</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.05</v>
+        <v>1.048</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>181.53</v>
+        <v>181.529</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>34.73</v>
+        <v>34.733</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>11.45</v>
+        <v>11.452</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>23.04</v>
+        <v>23.041</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>11.97</v>
+        <v>11.968</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.2</v>
+        <v>2.204</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>23.5</v>
+        <v>23.496</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>10.12</v>
+        <v>10.115</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>9.15</v>
+        <v>9.151</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>10.73</v>
+        <v>10.729</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>14.21</v>
+        <v>14.206</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>44.06</v>
+        <v>44.063</v>
       </c>
       <c r="AG3" s="4" t="n">
         <v>6.34</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>14.32</v>
+        <v>14.318</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>45008.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>16.81</v>
+        <v>16.815</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.33</v>
+        <v>1.335</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>36.46</v>
+        <v>36.463</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>29.7</v>
+        <v>29.696</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.23</v>
+        <v>13.233</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>51.47</v>
+        <v>51.467</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>20.36</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>8.93</v>
+        <v>8.929</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>13.19</v>
+        <v>13.187</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>14.63</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>15.35</v>
+        <v>15.348</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.23</v>
+        <v>4.227</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.16</v>
+        <v>13.159</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>18.64</v>
+        <v>18.636</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.22</v>
+        <v>11.225</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.05</v>
+        <v>1.054</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0.83</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>192.97</v>
+        <v>192.969</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>36.81</v>
+        <v>36.807</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.15</v>
+        <v>12.146</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>24.58</v>
+        <v>24.581</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>12.85</v>
+        <v>12.848</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.12</v>
+        <v>2.125</v>
       </c>
       <c r="Z4" s="4" t="n">
         <v>24.89</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>10.73</v>
+        <v>10.728</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>15.26</v>
+        <v>15.259</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
         <v>46.68</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>6.78</v>
+        <v>6.779</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>15.19</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>3.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45008.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>3.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_327.xlsx
+++ b/DATA_goal/Junction_Flooding_327.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>45008.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.32</v>
+        <v>4.324</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.9</v>
+        <v>2.905</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.34</v>
+        <v>9.337999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.35</v>
+        <v>7.355</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>3.404</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>18.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>5.236</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.25</v>
+        <v>2.247</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.13</v>
+        <v>3.131</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.76</v>
+        <v>3.756</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.88</v>
+        <v>3.875</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.1</v>
+        <v>1.097</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.384</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.78</v>
+        <v>4.784</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.07</v>
+        <v>3.067</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.712</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.23</v>
+        <v>44.233</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.76</v>
+        <v>9.759</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>3.123</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.39</v>
+        <v>6.393</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.24</v>
+        <v>3.241</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.4</v>
+        <v>8.401</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.759</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.58</v>
+        <v>2.577</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3</v>
+        <v>3.004</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.86</v>
+        <v>3.863</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.15</v>
+        <v>17.153</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.66</v>
       </c>
       <c r="AH5" s="4" t="n">
+        <v>3.907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>45008.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>14.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>3.91</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>44.16</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>9.48</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>6.19</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>13.07</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_327.xlsx
+++ b/DATA_goal/Junction_Flooding_327.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>45008.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.324</v>
+        <v>4.32</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.905</v>
+        <v>2.9</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.701</v>
+        <v>0.7</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.337999999999999</v>
+        <v>9.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.355</v>
+        <v>7.35</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.404</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>18.48</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.236</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.247</v>
+        <v>2.25</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.131</v>
+        <v>3.13</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.756</v>
+        <v>3.76</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.875</v>
+        <v>3.88</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.097</v>
+        <v>1.1</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>3.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.784</v>
+        <v>4.78</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.067</v>
+        <v>3.07</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.712</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.358</v>
+        <v>0.36</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.233</v>
+        <v>44.23</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.759</v>
+        <v>9.76</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.393</v>
+        <v>6.39</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.241</v>
+        <v>3.24</v>
       </c>
       <c r="Y5" s="4" t="n">
         <v>0.75</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.401</v>
+        <v>8.4</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.577</v>
+        <v>2.58</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>3.004</v>
+        <v>3</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.863</v>
+        <v>3.86</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.153</v>
+        <v>17.15</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>1.66</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.907</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>45008.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>14.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
         <v>3.91</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>4.72</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>44.16</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.07</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>3.9</v>
       </c>
     </row>
   </sheetData>
